--- a/Deal News and Ebay Project/Deal News and Ebay Scraper Data.xlsx
+++ b/Deal News and Ebay Project/Deal News and Ebay Scraper Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="95">
   <si>
     <t>Name</t>
   </si>
@@ -49,42 +49,21 @@
     <t>Chicy Teeth Whitening Kit with LED Light</t>
   </si>
   <si>
-    <t>Nite Ize Stainless Steel KeyRack Locker</t>
-  </si>
-  <si>
     <t>Room Essentials 11" 12-Cube Organizer Shelf</t>
   </si>
   <si>
     <t>SmooSat E9 Pro Kids' Electric Scooter</t>
   </si>
   <si>
-    <t>Munbyn Bluetooth Label Maker</t>
-  </si>
-  <si>
     <t>Replacement Toothbrush Heads 16-Pack</t>
   </si>
   <si>
     <t>Renogy 100W 12V Flexible Monocrystalline Solar Panel</t>
   </si>
   <si>
-    <t>DeWalt No. 8 Drill Flip Drive Complete Unit</t>
-  </si>
-  <si>
-    <t>Lenovo ThinkPad Essential 15.6" Laptop Bag</t>
-  </si>
-  <si>
-    <t>Hyper Tough Trunk-Mounted Aluminum 2-Bike Carrier</t>
-  </si>
-  <si>
-    <t>Hot Wheels Mario Kart Circuit Track Set</t>
-  </si>
-  <si>
     <t>Sony PlayStation 5 DualSense Wireless Controller</t>
   </si>
   <si>
-    <t>9-Piece Universal Car Seat Cover Set</t>
-  </si>
-  <si>
     <t>Gorilla Grip Slip-Resistant All-Purpose Work Gloves 5-Pack</t>
   </si>
   <si>
@@ -100,63 +79,21 @@
     <t>adidas Men's Super Soft Jogger</t>
   </si>
   <si>
-    <t>Nike Men's Flex Experience Run 10 Shoes</t>
-  </si>
-  <si>
     <t>Hanes Men's Comfort Flex Fit Boxer Brief 3-Pack</t>
   </si>
   <si>
     <t>Weatherproof Vintage Men's Hooded Jacket</t>
   </si>
   <si>
-    <t>McCormick Salt &amp; Pepper Grinder Variety Pack</t>
-  </si>
-  <si>
-    <t>Klein Tools 15-in-1 Multi-Bit Ratcheting Screwdriver</t>
-  </si>
-  <si>
-    <t>Neiko 5" Adjustable Impact Automatic Center Hole Punch</t>
-  </si>
-  <si>
-    <t>Klein Tools Digital Multimeter &amp; Voltage Tester</t>
-  </si>
-  <si>
-    <t>DeWalt 120V 15A 12" Corded Compound Miter Saw</t>
-  </si>
-  <si>
     <t>Orico 144Wh Portable Power Station</t>
   </si>
   <si>
-    <t>Jungle Gym Kingdom Swing Set Hangers</t>
-  </si>
-  <si>
-    <t>Mobile Height Adjustable Sit-to-Stand Desk</t>
-  </si>
-  <si>
-    <t>Master Lock Swivel Head Receiver Lock</t>
-  </si>
-  <si>
-    <t>Eastar Closed Hole C Flutes 16-Key Beginner Flute Set</t>
-  </si>
-  <si>
     <t>Schwinn Boundary 29" 7-Speed Electric Mountain Bike</t>
   </si>
   <si>
-    <t>Refurb Unlocked Samsung Galaxy S10 128GB Android Smartphone</t>
-  </si>
-  <si>
-    <t>Michael Michael Kors Jodie Small Logo Jacquard Tote Bag</t>
-  </si>
-  <si>
-    <t>Merrell Men's Moab 2 Shoes</t>
-  </si>
-  <si>
     <t>Columbia Bora Bora II Booney Hat</t>
   </si>
   <si>
-    <t>ASICS Men's Jolt 2 Running Shoes</t>
-  </si>
-  <si>
     <t>Classic Accessories 58" Veranda Water-Resistant BBQ Grill Cover</t>
   </si>
   <si>
@@ -166,12 +103,6 @@
     <t>Aiper Cordless Automatic Pool Cleaner</t>
   </si>
   <si>
-    <t>Certified Refurb Kalorik Hot Stone Pizza Oven</t>
-  </si>
-  <si>
-    <t>Newborn Drip-Free Smooth Hex Rod Cradle Caulking Gun</t>
-  </si>
-  <si>
     <t>Certified Refurb Snow Joe Strain-Reducing 18" Snow Shovel</t>
   </si>
   <si>
@@ -187,7 +118,118 @@
     <t>Cuisinart 10-Piece Ceramic-Coated Knife Set w/ Blade Guards</t>
   </si>
   <si>
-    <t>WalkingPad Foldable Under Desk Smart Treadmill</t>
+    <t>Fire Sense Rectangle Yakatori Charcoal Grill</t>
+  </si>
+  <si>
+    <t>ASICS Men's Japan S Shoes</t>
+  </si>
+  <si>
+    <t>Razer Anzu Polarized Smart Glasses</t>
+  </si>
+  <si>
+    <t>Swiss Madison Chateau Elongated One-Piece Toilet</t>
+  </si>
+  <si>
+    <t>Klipsch T5 II ANC True Wireless Active Noise Canceling Earphones</t>
+  </si>
+  <si>
+    <t>DeWalt 20V Max XR Cordless Hammer Drill / Impact Driver Kit</t>
+  </si>
+  <si>
+    <t>Columbia Men's Trek Crew Sweatshirt</t>
+  </si>
+  <si>
+    <t>SEI Furniture Macen Narrow Console Table</t>
+  </si>
+  <si>
+    <t>Aqua Joe 75-Foot Non-Expanding FiberJacket Hose</t>
+  </si>
+  <si>
+    <t>Under Armour Men's UA Rival Graphic Joggers</t>
+  </si>
+  <si>
+    <t>Yofidra 47" Soap Dispenser Extension Tube Kit with Dispenser Pump</t>
+  </si>
+  <si>
+    <t>Vacmaster Professional Wet/Dry Vac</t>
+  </si>
+  <si>
+    <t>Inkbird Vacuum Sealer Machine with Starter Kit</t>
+  </si>
+  <si>
+    <t>Smart Coom LED Bathroom Mirror</t>
+  </si>
+  <si>
+    <t>Alpine Old Fashion Pump Barrel Rustic Fountain</t>
+  </si>
+  <si>
+    <t>Klein Tools Wire Stripper/Cutter</t>
+  </si>
+  <si>
+    <t>16-oz. Travel Drinking Bottle 12-Pack</t>
+  </si>
+  <si>
+    <t>Augason Breakfast Emergency Food Supply 4-Gallon Pail</t>
+  </si>
+  <si>
+    <t>Listerine Total Care Mouthwash 1L Bottle</t>
+  </si>
+  <si>
+    <t>Style Edit Root Touch Up Spray</t>
+  </si>
+  <si>
+    <t>Lairlux Deep Tissue Massage Gun</t>
+  </si>
+  <si>
+    <t>DenTek Triple Clean Advanced Floss Picks 150-Count</t>
+  </si>
+  <si>
+    <t>M MUchengbao Travel Pill Organizer 4-Pack</t>
+  </si>
+  <si>
+    <t>Innocn 15.6" 1080p Portable Monitor</t>
+  </si>
+  <si>
+    <t>A11N Sports Portable Pickleball Net System</t>
+  </si>
+  <si>
+    <t>Surfwave Extra Wide Inflatable Paddle Board</t>
+  </si>
+  <si>
+    <t>Allen Sports Deluxe 2-Bike Trunk Mount Rack</t>
+  </si>
+  <si>
+    <t>Biliyip Pickleball Paddle Set</t>
+  </si>
+  <si>
+    <t>Nite Ize Slidelock Steel S-Biner</t>
+  </si>
+  <si>
+    <t>Transformers Toys Studio Series 83 Voyager Class Bumblebee Soundwave Action Figure</t>
+  </si>
+  <si>
+    <t>Hot Wheels City Super Twist Tire Shop Playset</t>
+  </si>
+  <si>
+    <t>Rocketbook Smart Reusable Notebook</t>
+  </si>
+  <si>
+    <t>Mind Reader 2-Tier Sit and Stand Desk</t>
+  </si>
+  <si>
+    <t>Rivet Classic Home Office Desk</t>
+  </si>
+  <si>
+    <t>Loukin Non-Toxic Whiteboard Cleaner 12-Pack</t>
+  </si>
+  <si>
+    <t>Supvan Wireless Mini Label Maker Machine with Tape</t>
+  </si>
+  <si>
+    <t>Mucar OBD2 Car Diagnostic Scanner</t>
+  </si>
+  <si>
+    <t>Car Seat Gap Organizer / Storage Box 2-Pack</t>
   </si>
   <si>
     <t>Amazon</t>
@@ -196,49 +238,58 @@
     <t>Target</t>
   </si>
   <si>
-    <t>Lenovo</t>
+    <t>Proozy</t>
+  </si>
+  <si>
+    <t>eBay</t>
+  </si>
+  <si>
+    <t>Macy's</t>
   </si>
   <si>
     <t>Walmart</t>
   </si>
   <si>
+    <t>Columbia</t>
+  </si>
+  <si>
+    <t>Woot!</t>
+  </si>
+  <si>
+    <t>MorningSave</t>
+  </si>
+  <si>
+    <t>Ace</t>
+  </si>
+  <si>
+    <t>Bed</t>
+  </si>
+  <si>
     <t>UntilGone</t>
   </si>
   <si>
-    <t>Proozy</t>
-  </si>
-  <si>
-    <t>Nike</t>
-  </si>
-  <si>
-    <t>eBay</t>
-  </si>
-  <si>
-    <t>Macy's</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t>Columbia</t>
-  </si>
-  <si>
-    <t>Woot!</t>
-  </si>
-  <si>
-    <t>MorningSave</t>
-  </si>
-  <si>
     <t>Health &amp; Beauty</t>
   </si>
   <si>
+    <t>Home &amp; Garden</t>
+  </si>
+  <si>
+    <t>Sporting Goods</t>
+  </si>
+  <si>
+    <t>Video Games &amp; Consoles</t>
+  </si>
+  <si>
+    <t>Business &amp; Industrial</t>
+  </si>
+  <si>
     <t>Clothing, Shoes &amp; Accessories</t>
   </si>
   <si>
-    <t>Home &amp; Garden</t>
-  </si>
-  <si>
-    <t>Sporting Goods</t>
+    <t>Consumer Electronics</t>
+  </si>
+  <si>
+    <t>Cell Phones, Smart Watches &amp; Accessories</t>
   </si>
   <si>
     <t>Computers, Tablets &amp; Network Hardware</t>
@@ -247,22 +298,7 @@
     <t>Toys &amp; Hobbies</t>
   </si>
   <si>
-    <t>Video Games &amp; Consoles</t>
-  </si>
-  <si>
     <t>eBay Motors</t>
-  </si>
-  <si>
-    <t>Business &amp; Industrial</t>
-  </si>
-  <si>
-    <t>Selected category</t>
-  </si>
-  <si>
-    <t>Musical Instruments &amp; Gear</t>
-  </si>
-  <si>
-    <t>Cell Phones, Smart Watches &amp; Accessories</t>
   </si>
 </sst>
 </file>
@@ -620,7 +656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -669,13 +705,13 @@
         <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E2">
         <v>56.14</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="G2">
         <v>30</v>
@@ -695,25 +731,25 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>6.39</v>
+        <v>35</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="E3">
-        <v>12.41</v>
+        <v>139.99</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -727,25 +763,25 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="C4">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E4">
-        <v>139.99</v>
+        <v>179.99</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="G4">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -759,22 +795,22 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>140</v>
+        <v>7.92</v>
       </c>
       <c r="C5">
-        <v>200</v>
+        <v>8.34</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E5">
-        <v>179.99</v>
+        <v>9.99</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -791,25 +827,25 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="C6">
-        <v>43</v>
+        <v>200</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E6">
-        <v>109.99</v>
+        <v>78.98999999999999</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G6">
-        <v>65</v>
+        <v>-42</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -823,22 +859,22 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>7.92</v>
+        <v>59</v>
       </c>
       <c r="C7">
-        <v>8.34</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E7">
-        <v>9.99</v>
+        <v>59.99</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -855,22 +891,22 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>200</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E8">
-        <v>78.98999999999999</v>
+        <v>7.75</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="G8">
-        <v>-42</v>
+        <v>-4</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -887,22 +923,22 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>480</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E9">
-        <v>11.2</v>
+        <v>224.99</v>
       </c>
       <c r="F9" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="G9">
-        <v>-2</v>
+        <v>13</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -919,22 +955,22 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C10">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E10">
-        <v>62.58</v>
+        <v>28.99</v>
       </c>
       <c r="F10" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="G10">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -951,25 +987,25 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="C11">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E11">
-        <v>44.99</v>
+        <v>143.07</v>
       </c>
       <c r="F11" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -983,22 +1019,22 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="C12">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="E12">
-        <v>76.5</v>
+        <v>22.94</v>
       </c>
       <c r="F12" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="G12">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1015,22 +1051,22 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C13">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
         <v>75</v>
       </c>
-      <c r="D13" t="s">
-        <v>58</v>
-      </c>
       <c r="E13">
-        <v>59.99</v>
+        <v>19.25</v>
       </c>
       <c r="F13" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G13">
-        <v>-6</v>
+        <v>5</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1047,22 +1083,22 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C14">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="E14">
-        <v>31.99</v>
+        <v>29.99</v>
       </c>
       <c r="F14" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G14">
-        <v>-7</v>
+        <v>9</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1079,25 +1115,25 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="C15">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E15">
-        <v>7.75</v>
+        <v>275.79</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G15">
-        <v>-4</v>
+        <v>148</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1111,22 +1147,22 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>182</v>
+        <v>798</v>
       </c>
       <c r="C16">
-        <v>480</v>
+        <v>1098</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="E16">
-        <v>224.99</v>
+        <v>874.99</v>
       </c>
       <c r="F16" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="G16">
-        <v>13</v>
+        <v>-36</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1143,22 +1179,22 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C17">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="E17">
-        <v>28.99</v>
+        <v>35</v>
       </c>
       <c r="F17" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1175,25 +1211,25 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="C18">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E18">
-        <v>143.07</v>
+        <v>23.68</v>
       </c>
       <c r="F18" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="G18">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1207,22 +1243,22 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="C19">
+        <v>180</v>
+      </c>
+      <c r="D19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19">
+        <v>140.4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19">
         <v>22</v>
-      </c>
-      <c r="D19" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19">
-        <v>22.94</v>
-      </c>
-      <c r="F19" t="s">
-        <v>72</v>
-      </c>
-      <c r="G19">
-        <v>6</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1239,22 +1275,22 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="C20">
-        <v>65</v>
+        <v>290</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E20">
-        <v>52.99</v>
+        <v>244.99</v>
       </c>
       <c r="F20" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1274,19 +1310,19 @@
         <v>11</v>
       </c>
       <c r="C21">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E21">
-        <v>19.25</v>
+        <v>14.99</v>
       </c>
       <c r="F21" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="G21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1303,22 +1339,22 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C22">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E22">
-        <v>29.99</v>
+        <v>26.99</v>
       </c>
       <c r="F22" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="G22">
-        <v>9</v>
+        <v>-3</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1335,22 +1371,22 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>7.21</v>
+        <v>11</v>
       </c>
       <c r="C23">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E23">
-        <v>14.09</v>
+        <v>16.42</v>
       </c>
       <c r="F23" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1367,22 +1403,22 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>20</v>
+        <v>9.74</v>
       </c>
       <c r="C24">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E24">
-        <v>23.99</v>
+        <v>21.99</v>
       </c>
       <c r="F24" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1402,19 +1438,19 @@
         <v>14</v>
       </c>
       <c r="C25">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="E25">
-        <v>19.61</v>
+        <v>30</v>
       </c>
       <c r="F25" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="G25">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1431,22 +1467,22 @@
         <v>34</v>
       </c>
       <c r="B26">
+        <v>32</v>
+      </c>
+      <c r="C26">
+        <v>110</v>
+      </c>
+      <c r="D26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26">
+        <v>72.39</v>
+      </c>
+      <c r="F26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26">
         <v>30</v>
-      </c>
-      <c r="C26">
-        <v>36</v>
-      </c>
-      <c r="D26" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26">
-        <v>31.25</v>
-      </c>
-      <c r="F26" t="s">
-        <v>79</v>
-      </c>
-      <c r="G26">
-        <v>-2</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1463,22 +1499,22 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>256</v>
+        <v>33</v>
       </c>
       <c r="C27">
-        <v>588</v>
+        <v>70</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E27">
-        <v>257.99</v>
+        <v>49.9</v>
       </c>
       <c r="F27" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="G27">
-        <v>-31</v>
+        <v>10</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1495,25 +1531,25 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="C28">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E28">
-        <v>275.79</v>
+        <v>49.99</v>
       </c>
       <c r="F28" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="G28">
-        <v>148</v>
+        <v>-5</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1527,28 +1563,28 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>21</v>
+        <v>179</v>
       </c>
       <c r="C29">
-        <v>33</v>
+        <v>243</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E29">
-        <v>33.06</v>
+        <v>275.99</v>
       </c>
       <c r="F29" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G29">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -1556,25 +1592,25 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B30">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C30">
-        <v>337</v>
+        <v>126</v>
       </c>
       <c r="D30" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E30">
-        <v>78.98999999999999</v>
+        <v>136.18</v>
       </c>
       <c r="F30" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -1588,25 +1624,25 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>7.77</v>
+        <v>89</v>
       </c>
       <c r="C31">
-        <v>16</v>
+        <v>329</v>
       </c>
       <c r="D31" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E31">
-        <v>24.95</v>
+        <v>89</v>
       </c>
       <c r="F31" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G31">
-        <v>13</v>
+        <v>-11</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -1620,25 +1656,25 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32">
+        <v>319</v>
+      </c>
+      <c r="C32">
+        <v>339</v>
+      </c>
+      <c r="D32" t="s">
         <v>81</v>
       </c>
-      <c r="C32">
+      <c r="E32">
+        <v>294.17</v>
+      </c>
+      <c r="F32" t="s">
         <v>85</v>
       </c>
-      <c r="D32" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32">
-        <v>85</v>
-      </c>
-      <c r="F32" t="s">
-        <v>81</v>
-      </c>
       <c r="G32">
-        <v>-7</v>
+        <v>-63</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -1652,25 +1688,25 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>798</v>
+        <v>11</v>
       </c>
       <c r="C33">
-        <v>1098</v>
+        <v>45</v>
       </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E33">
-        <v>874.99</v>
+        <v>44.99</v>
       </c>
       <c r="F33" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G33">
-        <v>-36</v>
+        <v>28</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -1684,25 +1720,25 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>178</v>
+        <v>58</v>
       </c>
       <c r="C34">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="D34" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E34">
-        <v>159.99</v>
+        <v>96.34999999999999</v>
       </c>
       <c r="F34" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G34">
-        <v>-38</v>
+        <v>25</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -1716,25 +1752,25 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B35">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C35">
-        <v>348</v>
+        <v>70</v>
       </c>
       <c r="D35" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E35">
-        <v>95</v>
+        <v>43.58</v>
       </c>
       <c r="F35" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="G35">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -1748,25 +1784,25 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="C36">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="D36" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E36">
-        <v>55</v>
+        <v>29.99</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="G36">
-        <v>-20</v>
+        <v>1</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -1780,25 +1816,25 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B37">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C37">
         <v>30</v>
       </c>
       <c r="D37" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E37">
-        <v>35</v>
+        <v>22.94</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G37">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -1812,25 +1848,25 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C38">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D38" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E38">
-        <v>34.95</v>
+        <v>14.83</v>
       </c>
       <c r="F38" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="G38">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -1844,25 +1880,25 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="C39">
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="D39" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E39">
-        <v>23.68</v>
+        <v>58.8</v>
       </c>
       <c r="F39" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="G39">
-        <v>2</v>
+        <v>-7</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -1876,25 +1912,25 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="C40">
-        <v>180</v>
+        <v>55</v>
       </c>
       <c r="D40" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E40">
-        <v>140.4</v>
+        <v>66.61</v>
       </c>
       <c r="F40" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="G40">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -1908,28 +1944,28 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="C41">
-        <v>290</v>
+        <v>200</v>
       </c>
       <c r="D41" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E41">
-        <v>244.99</v>
+        <v>199.99</v>
       </c>
       <c r="F41" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="G41">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -1940,7 +1976,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>59</v>
@@ -1949,16 +1985,16 @@
         <v>100</v>
       </c>
       <c r="D42" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E42">
-        <v>88.61</v>
+        <v>58.78</v>
       </c>
       <c r="F42" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="G42">
-        <v>18</v>
+        <v>-7</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -1972,25 +2008,25 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C43">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D43" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E43">
-        <v>15.99</v>
+        <v>9.99</v>
       </c>
       <c r="F43" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -2004,25 +2040,25 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C44">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D44" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E44">
-        <v>14.99</v>
+        <v>56.14</v>
       </c>
       <c r="F44" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="G44">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -2036,25 +2072,25 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B45">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="C45">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="D45" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E45">
-        <v>26.99</v>
+        <v>29.98</v>
       </c>
       <c r="F45" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="G45">
-        <v>-3</v>
+        <v>-30</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -2068,25 +2104,25 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>11</v>
+        <v>5.67</v>
       </c>
       <c r="C46">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E46">
-        <v>16.42</v>
+        <v>34.99</v>
       </c>
       <c r="F46" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="G46">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -2100,25 +2136,25 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B47">
         <v>9.74</v>
       </c>
       <c r="C47">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E47">
-        <v>21.99</v>
+        <v>14.95</v>
       </c>
       <c r="F47" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="G47">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -2132,28 +2168,28 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C48">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="D48" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E48">
-        <v>30</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="F48" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="G48">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -2164,33 +2200,545 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49">
+        <v>3.51</v>
+      </c>
+      <c r="C49">
+        <v>6</v>
+      </c>
+      <c r="D49" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49">
+        <v>6.49</v>
+      </c>
+      <c r="F49" t="s">
+        <v>84</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>10</v>
+      </c>
+      <c r="D50" t="s">
+        <v>72</v>
+      </c>
+      <c r="E50">
+        <v>19.81</v>
+      </c>
+      <c r="F50" t="s">
+        <v>84</v>
+      </c>
+      <c r="G50">
+        <v>13</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" t="s">
         <v>57</v>
       </c>
-      <c r="B49">
-        <v>440</v>
-      </c>
-      <c r="C49">
-        <v>550</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="B51">
+        <v>225</v>
+      </c>
+      <c r="C51">
+        <v>280</v>
+      </c>
+      <c r="D51" t="s">
+        <v>72</v>
+      </c>
+      <c r="E51">
+        <v>128.79</v>
+      </c>
+      <c r="F51" t="s">
+        <v>92</v>
+      </c>
+      <c r="G51">
+        <v>-112</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" t="s">
         <v>58</v>
       </c>
-      <c r="E49">
-        <v>190.1</v>
-      </c>
-      <c r="F49" t="s">
-        <v>74</v>
-      </c>
-      <c r="G49">
-        <v>-274</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
+      <c r="B52">
+        <v>84</v>
+      </c>
+      <c r="C52">
+        <v>130</v>
+      </c>
+      <c r="D52" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52">
+        <v>94.98</v>
+      </c>
+      <c r="F52" t="s">
+        <v>86</v>
+      </c>
+      <c r="G52">
+        <v>-1</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53">
+        <v>170</v>
+      </c>
+      <c r="C53">
+        <v>180</v>
+      </c>
+      <c r="D53" t="s">
+        <v>72</v>
+      </c>
+      <c r="E53">
+        <v>239</v>
+      </c>
+      <c r="F53" t="s">
+        <v>86</v>
+      </c>
+      <c r="G53">
+        <v>37</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54">
+        <v>33</v>
+      </c>
+      <c r="C54">
+        <v>60</v>
+      </c>
+      <c r="D54" t="s">
+        <v>72</v>
+      </c>
+      <c r="E54">
+        <v>31.99</v>
+      </c>
+      <c r="F54" t="s">
+        <v>86</v>
+      </c>
+      <c r="G54">
+        <v>-5</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55">
+        <v>30</v>
+      </c>
+      <c r="C55">
+        <v>40</v>
+      </c>
+      <c r="D55" t="s">
+        <v>72</v>
+      </c>
+      <c r="E55">
+        <v>61.89</v>
+      </c>
+      <c r="F55" t="s">
+        <v>86</v>
+      </c>
+      <c r="G55">
+        <v>23</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56">
+        <v>3.19</v>
+      </c>
+      <c r="C56">
+        <v>3.69</v>
+      </c>
+      <c r="D56" t="s">
+        <v>72</v>
+      </c>
+      <c r="E56">
+        <v>11.21</v>
+      </c>
+      <c r="F56" t="s">
+        <v>89</v>
+      </c>
+      <c r="G56">
+        <v>6</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57">
+        <v>27</v>
+      </c>
+      <c r="C57">
+        <v>34</v>
+      </c>
+      <c r="D57" t="s">
+        <v>72</v>
+      </c>
+      <c r="E57">
+        <v>38.95</v>
+      </c>
+      <c r="F57" t="s">
+        <v>93</v>
+      </c>
+      <c r="G57">
+        <v>6</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58">
+        <v>16</v>
+      </c>
+      <c r="C58">
+        <v>22</v>
+      </c>
+      <c r="D58" t="s">
+        <v>72</v>
+      </c>
+      <c r="E58">
+        <v>31.95</v>
+      </c>
+      <c r="F58" t="s">
+        <v>93</v>
+      </c>
+      <c r="G58">
+        <v>11</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59">
+        <v>20</v>
+      </c>
+      <c r="C59">
+        <v>28</v>
+      </c>
+      <c r="D59" t="s">
+        <v>72</v>
+      </c>
+      <c r="E59">
+        <v>25.95</v>
+      </c>
+      <c r="F59" t="s">
+        <v>88</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60">
+        <v>30</v>
+      </c>
+      <c r="C60">
+        <v>50</v>
+      </c>
+      <c r="D60" t="s">
+        <v>82</v>
+      </c>
+      <c r="E60">
+        <v>38.19</v>
+      </c>
+      <c r="F60" t="s">
+        <v>85</v>
+      </c>
+      <c r="G60">
+        <v>3</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61">
+        <v>51</v>
+      </c>
+      <c r="C61">
+        <v>146</v>
+      </c>
+      <c r="D61" t="s">
+        <v>72</v>
+      </c>
+      <c r="E61">
+        <v>69.42</v>
+      </c>
+      <c r="F61" t="s">
+        <v>85</v>
+      </c>
+      <c r="G61">
+        <v>9</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62">
+        <v>36</v>
+      </c>
+      <c r="C62">
+        <v>60</v>
+      </c>
+      <c r="D62" t="s">
+        <v>72</v>
+      </c>
+      <c r="E62">
+        <v>29.99</v>
+      </c>
+      <c r="F62" t="s">
+        <v>88</v>
+      </c>
+      <c r="G62">
+        <v>-9</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63">
+        <v>20</v>
+      </c>
+      <c r="C63">
+        <v>31</v>
+      </c>
+      <c r="D63" t="s">
+        <v>72</v>
+      </c>
+      <c r="E63">
+        <v>49.61</v>
+      </c>
+      <c r="F63" t="s">
+        <v>92</v>
+      </c>
+      <c r="G63">
+        <v>23</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64">
+        <v>68</v>
+      </c>
+      <c r="C64">
+        <v>170</v>
+      </c>
+      <c r="D64" t="s">
+        <v>72</v>
+      </c>
+      <c r="E64">
+        <v>49.59</v>
+      </c>
+      <c r="F64" t="s">
+        <v>94</v>
+      </c>
+      <c r="G64">
+        <v>-24</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65">
+        <v>18</v>
+      </c>
+      <c r="C65">
+        <v>30</v>
+      </c>
+      <c r="D65" t="s">
+        <v>83</v>
+      </c>
+      <c r="E65">
+        <v>11.89</v>
+      </c>
+      <c r="F65" t="s">
+        <v>94</v>
+      </c>
+      <c r="G65">
+        <v>-7</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
         <v>0</v>
       </c>
     </row>
